--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\SWD-NEEDLE\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415D9C97-61F5-4EA8-81B5-7F8C6006C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{362E9E1A-2185-4532-98D7-397A6CF5FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{15EC021C-B2AE-4088-867A-1BBB8DD913DA}"/>
+    <workbookView xWindow="2970" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{C41969B6-4F3D-4D74-AD44-36658DBE21B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Designator</t>
   </si>
@@ -51,28 +51,25 @@
     <t>MP</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Package</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Type</t>
   </si>
   <si>
     <t>Instructions</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>HelpURL</t>
   </si>
   <si>
-    <t>ChipDip_Link</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>System</t>
   </si>
   <si>
     <t>D1, D2, D3, D4</t>
@@ -87,31 +84,40 @@
     <t>Pogo pin P75-E2, Pogo pin P75-B1</t>
   </si>
   <si>
+    <t>SMD</t>
+  </si>
+  <si>
     <t>see picture to install</t>
   </si>
   <si>
-    <t>P75-E2, P75-B1</t>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>JST Sales</t>
+  </si>
+  <si>
+    <t>SM06B-SRSS-TB_LF__SN_</t>
+  </si>
+  <si>
+    <t>Connector Header Surface Mount, Right Angle 6 position 0.039 _1.00mm_</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>SWD</t>
   </si>
   <si>
-    <t>JST Sales</t>
-  </si>
-  <si>
     <t>SM04B-GHS-TB_LF__SN_-</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Connector Header Surface Mount, Right Angle 4 position 0.049 _1.25mm_</t>
   </si>
   <si>
     <t>http://www.farnell.com/datasheets/2082975.pdf</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/sm04b-ghs-tb-lf-sn-gh-1.25mm-header-side-ent</t>
   </si>
 </sst>
 </file>
@@ -488,28 +494,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1783A0-1912-4F38-B68E-5D563DE5C9F3}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A061073-FF90-4C17-8253-82C506A41F18}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,47 +548,43 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -596,27 +597,55 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>